--- a/interface_automation/class_0709_mysql/cases.xlsx
+++ b/interface_automation/class_0709_mysql/cases.xlsx
@@ -82,10 +82,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -104,6 +104,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -111,14 +218,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,118 +240,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -262,13 +262,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,43 +394,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,115 +430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,24 +468,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -503,6 +485,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,151 +553,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,8 +1072,8 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="7"/>

--- a/interface_automation/class_0709_mysql/cases.xlsx
+++ b/interface_automation/class_0709_mysql/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11920"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="25">
   <si>
     <t>case_id</t>
   </si>
@@ -26,52 +26,70 @@
     <t>title</t>
   </si>
   <si>
+    <t>url_path</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>使用不存在的手机号进行注册</t>
+  </si>
+  <si>
+    <t>/member/register</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"mobilephone": "${not_existed_tel}", "pwd": 123456, "regname": "刀刀"}</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>code: "10001",</t>
+  </si>
+  <si>
+    <t>使用已存在的手机号进行注册</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"mobilephone": "${existed_tel}", "pwd": 123456, "regname": "刀刀"}</t>
+  </si>
+  <si>
+    <t>code: "20110",</t>
+  </si>
+  <si>
+    <t>使用未发行的手机号进行注册</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"mobilephone": 28888888888, "pwd": 123456, "regname": "刀刀"}</t>
+  </si>
+  <si>
+    <t>code: "20109",</t>
+  </si>
+  <si>
+    <t>不使用手机号进行注册</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"mobilephone": null, "pwd": 123456, "regname": "刀刀"}</t>
+  </si>
+  <si>
+    <t>使用字符串手机号码进行注册</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"mobilephone": "18888888888", "pwd": 123456, "regname": "刀刀"}</t>
+  </si>
+  <si>
     <t>url</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>actual</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>使用不存在的手机号进行注册</t>
-  </si>
-  <si>
-    <t>/member/register</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>code: "10001",</t>
-  </si>
-  <si>
-    <t>使用已存在的手机号进行注册</t>
-  </si>
-  <si>
-    <t>code: "20110",</t>
-  </si>
-  <si>
-    <t>使用不符合规格的手机号进行注册</t>
-  </si>
-  <si>
-    <t>code: "20109",</t>
-  </si>
-  <si>
-    <t>使用非手机好的数字进行注册</t>
-  </si>
-  <si>
-    <t>使用字符串手机号码进行注册</t>
   </si>
   <si>
     <t>check_sql</t>
@@ -82,10 +100,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -104,31 +122,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,91 +146,89 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,7 +243,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,19 +274,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,163 +436,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,7 +487,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,45 +503,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,155 +541,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -721,58 +739,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1068,151 +1091,161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H2"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.99038461538461" customWidth="1"/>
-    <col min="2" max="2" width="33.5576923076923" customWidth="1"/>
-    <col min="3" max="3" width="17.9807692307692" customWidth="1"/>
-    <col min="4" max="4" width="88.875" customWidth="1"/>
-    <col min="5" max="5" width="10.5576923076923" customWidth="1"/>
-    <col min="6" max="6" width="68.5576923076923" customWidth="1"/>
-    <col min="7" max="7" width="68.5769230769231" customWidth="1"/>
-    <col min="8" max="8" width="30.3365384615385" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="80.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16" style="4" customWidth="1"/>
+    <col min="7" max="8" width="7.375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1222,7 +1255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -1230,15 +1263,15 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="10.2211538461538" customWidth="1"/>
+    <col min="1" max="1" width="10.225" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="16.8846153846154" customWidth="1"/>
-    <col min="4" max="4" width="65.6634615384615" customWidth="1"/>
-    <col min="5" max="5" width="10.3365384615385" customWidth="1"/>
+    <col min="3" max="3" width="16.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="65.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="10.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="67" customWidth="1"/>
-    <col min="7" max="7" width="67.8846153846154" customWidth="1"/>
+    <col min="7" max="7" width="67.8833333333333" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1250,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -1276,7 +1309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -1284,16 +1317,16 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.3365384615385" customWidth="1"/>
-    <col min="2" max="2" width="23.1153846153846" customWidth="1"/>
-    <col min="3" max="3" width="19.1153846153846" customWidth="1"/>
-    <col min="4" max="4" width="70.4423076923077" customWidth="1"/>
-    <col min="5" max="5" width="9.55769230769231" customWidth="1"/>
-    <col min="6" max="6" width="12.7788461538462" customWidth="1"/>
-    <col min="7" max="7" width="56.8846153846154" customWidth="1"/>
-    <col min="8" max="8" width="9.11538461538461" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="23.1166666666667" customWidth="1"/>
+    <col min="3" max="3" width="19.1166666666667" customWidth="1"/>
+    <col min="4" max="4" width="70.4416666666667" customWidth="1"/>
+    <col min="5" max="5" width="9.55833333333333" customWidth="1"/>
+    <col min="6" max="6" width="12.775" customWidth="1"/>
+    <col min="7" max="7" width="56.8833333333333" customWidth="1"/>
+    <col min="8" max="8" width="9.11666666666667" style="1" customWidth="1"/>
     <col min="9" max="9" width="83" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1305,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -1323,7 +1356,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1334,7 +1367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -1342,16 +1375,16 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.88461538461539" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1153846153846" customWidth="1"/>
-    <col min="3" max="3" width="14.7788461538462" customWidth="1"/>
-    <col min="4" max="4" width="98.2211538461538" customWidth="1"/>
-    <col min="5" max="5" width="9.66346153846154" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6634615384615" style="1" customWidth="1"/>
-    <col min="7" max="7" width="56.2211538461538" customWidth="1"/>
-    <col min="8" max="8" width="8.88461538461539" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1166666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.775" customWidth="1"/>
+    <col min="4" max="4" width="98.225" customWidth="1"/>
+    <col min="5" max="5" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="56.225" customWidth="1"/>
+    <col min="8" max="8" width="8.88333333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1362,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -1387,7 +1420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -1395,16 +1428,16 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.88461538461539" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7788461538462" customWidth="1"/>
-    <col min="3" max="3" width="17.4423076923077" customWidth="1"/>
-    <col min="4" max="4" width="92.8846153846154" customWidth="1"/>
+    <col min="1" max="1" width="8.88333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.775" customWidth="1"/>
+    <col min="3" max="3" width="17.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="92.8833333333333" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38.1153846153846" customWidth="1"/>
-    <col min="8" max="8" width="9.77884615384615" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.1166666666667" customWidth="1"/>
+    <col min="8" max="8" width="9.775" style="1" customWidth="1"/>
     <col min="9" max="9" width="83" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1416,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
@@ -1434,7 +1467,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/interface_automation/class_0709_mysql/cases.xlsx
+++ b/interface_automation/class_0709_mysql/cases.xlsx
@@ -1096,7 +1096,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
